--- a/data/trans_dic/IP18A06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A06-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>7,03%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,96</t>
+          <t>0,0; 2,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 5,25</t>
+          <t>0,72; 4,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,8</t>
+          <t>0,52; 3,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,04; 16,08</t>
+          <t>0,0; 12,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,05</t>
+          <t>1,57; 6,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,73</t>
+          <t>0,0; 1,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,31</t>
+          <t>0,37; 3,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,65</t>
+          <t>4,42; 25,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,91</t>
+          <t>1,11; 3,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,74</t>
+          <t>0,52; 2,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,87</t>
+          <t>0,71; 2,51</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 10,58</t>
+          <t>3,02; 13,74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>6,1%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,7</t>
+          <t>1,43; 4,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,34</t>
+          <t>1,54; 5,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,18</t>
+          <t>1,55; 5,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,17</t>
+          <t>4,04; 16,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 6,46</t>
+          <t>0,0; 2,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,59</t>
+          <t>0,59; 3,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,12</t>
+          <t>1,53; 5,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,42; 25,9</t>
+          <t>0,0; 9,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,78</t>
+          <t>0,99; 2,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,38</t>
+          <t>1,4; 3,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,51</t>
+          <t>1,86; 4,87</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 13,74</t>
+          <t>2,99; 10,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A06-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>2,89%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,54</t>
+          <t>0,46; 4,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,42</t>
+          <t>0,0; 2,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,55</t>
+          <t>0,0; 3,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,61</t>
+          <t>0,0; 16,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,39</t>
+          <t>0,59; 5,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,65</t>
+          <t>0,35; 3,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,4</t>
+          <t>0,43; 4,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,57</t>
+          <t>0,0; 14,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,45</t>
+          <t>0,61; 3,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,11</t>
+          <t>0,23; 1,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,31</t>
+          <t>0,29; 2,66</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,67</t>
+          <t>0,0; 10,33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>5,45%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,7</t>
+          <t>0; 0,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,34</t>
+          <t>1,37; 5,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,18</t>
+          <t>0,49; 2,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,17</t>
+          <t>0,0; 10,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 6,46</t>
+          <t>1,3; 4,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,59</t>
+          <t>0,32; 2,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,12</t>
+          <t>0,31; 3,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 25,9</t>
+          <t>2,85; 24,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,78</t>
+          <t>0,57; 2,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,38</t>
+          <t>1,14; 3,35</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,51</t>
+          <t>0,62; 2,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 13,74</t>
+          <t>1,75; 13,25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>7,05%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,96</t>
+          <t>1,09; 6,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 5,25</t>
+          <t>0,66; 5,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,8</t>
+          <t>0,91; 5,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 16,08</t>
+          <t>2,51; 21,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,05</t>
+          <t>0,6; 5,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,73</t>
+          <t>0,0; 3,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,31</t>
+          <t>1,53; 6,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,65</t>
+          <t>0,0; 15,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,91</t>
+          <t>1,16; 4,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,74</t>
+          <t>0,53; 3,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,87</t>
+          <t>1,63; 4,71</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 10,58</t>
+          <t>2,92; 14,48</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>6,15%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,54</t>
+          <t>1,19; 5,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,38</t>
+          <t>1,26; 5,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 2,81</t>
+          <t>0,96; 5,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 9,41</t>
+          <t>2,25; 15,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,79</t>
+          <t>0,0; 2,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,12</t>
+          <t>0,41; 3,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,07</t>
+          <t>0,85; 4,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 11,04</t>
+          <t>0,0; 14,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,41</t>
+          <t>0,77; 3,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,36</t>
+          <t>1,08; 3,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,59</t>
+          <t>1,14; 4,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,55; 8,62</t>
+          <t>2,6; 11,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,69%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,21%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,06%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,79%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 2,63</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,42; 3,33</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 2,8</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,93; 9,5</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 2,92</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,66; 2,08</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 3,14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,77; 10,99</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 2,4</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 2,45</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1,34; 2,59</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3,53; 8,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP18A06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A06-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,8</t>
+          <t>0,45; 5,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,13</t>
+          <t>0,0; 2,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,12</t>
+          <t>0,0; 3,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,11</t>
+          <t>0,0; 16,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,53</t>
+          <t>0,59; 4,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,0</t>
+          <t>0,35; 3,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,17</t>
+          <t>0,44; 3,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,27</t>
+          <t>0,0; 14,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,83</t>
+          <t>0,69; 3,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,99</t>
+          <t>0,18; 1,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,66</t>
+          <t>0,29; 2,62</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,33</t>
+          <t>0,0; 9,28</t>
         </is>
       </c>
     </row>
@@ -869,57 +869,57 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 5,06</t>
+          <t>1,39; 5,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,84</t>
+          <t>0,51; 3,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,44</t>
+          <t>0,0; 8,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,8</t>
+          <t>1,33; 4,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,99</t>
+          <t>0,32; 2,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,73</t>
+          <t>0,41; 3,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 24,87</t>
+          <t>2,32; 22,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,51</t>
+          <t>0,68; 2,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,35</t>
+          <t>1,17; 3,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,39</t>
+          <t>0,69; 2,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 13,25</t>
+          <t>1,92; 13,13</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 6,51</t>
+          <t>1,09; 6,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 5,9</t>
+          <t>0,64; 5,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,26</t>
+          <t>0,93; 5,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 21,99</t>
+          <t>2,68; 21,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,65</t>
+          <t>0,6; 5,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,37</t>
+          <t>0,0; 2,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 6,36</t>
+          <t>1,51; 6,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,22</t>
+          <t>0,0; 14,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,7</t>
+          <t>1,25; 5,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,31</t>
+          <t>0,62; 3,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,71</t>
+          <t>1,6; 4,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 14,48</t>
+          <t>2,48; 13,88</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 5,32</t>
+          <t>1,17; 5,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 5,65</t>
+          <t>1,25; 5,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,9</t>
+          <t>0,8; 5,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 15,82</t>
+          <t>2,59; 16,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,4</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,85</t>
+          <t>0,41; 4,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,76</t>
+          <t>0,84; 4,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,77</t>
+          <t>0,0; 16,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,04</t>
+          <t>0,62; 3,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,97</t>
+          <t>1,07; 3,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,33</t>
+          <t>1,2; 4,57</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 11,89</t>
+          <t>2,79; 11,95</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,63</t>
+          <t>0,9; 2,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,33</t>
+          <t>1,39; 3,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 2,8</t>
+          <t>1,11; 2,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,93; 9,5</t>
+          <t>3,01; 9,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 2,92</t>
+          <t>1,03; 2,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,08</t>
+          <t>0,63; 2,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,14</t>
+          <t>1,26; 3,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 10,99</t>
+          <t>2,56; 10,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,4</t>
+          <t>1,18; 2,33</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,45</t>
+          <t>1,18; 2,45</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,59</t>
+          <t>1,42; 2,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,53; 8,58</t>
+          <t>3,44; 8,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A06-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,49 +656,49 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>1,82%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,46%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,59%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,2%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>1,83%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,18%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,45%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>2,56%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,83%</t>
-        </is>
-      </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
           <t>0,81%</t>
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,88%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 5,23</t>
+          <t>0,59; 5,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,37</t>
+          <t>0,0; 2,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,29</t>
+          <t>0,43; 3,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,44</t>
+          <t>0,0; 13,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 4,88</t>
+          <t>0,46; 5,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,2</t>
+          <t>0,0; 2,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,51</t>
+          <t>0,0; 3,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,34</t>
+          <t>0,0; 16,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,97</t>
+          <t>0,6; 3,77</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,97</t>
+          <t>0,23; 1,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,62</t>
+          <t>0,28; 2,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,28</t>
+          <t>0,0; 9,75</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9,63%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>2,78%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>1,32%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,73%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,62%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,28%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1,31%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>1,32%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>9,78%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1,31%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>2,07%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>1,32%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,33%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>1,26; 4,92</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 3,11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 3,15</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2,16; 23,6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,55</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 5,02</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,51; 3,09</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,59</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1,33; 4,99</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,9</t>
+          <t>1,28; 5,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,39</t>
+          <t>0,5; 2,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 22,72</t>
+          <t>0,0; 9,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,71</t>
+          <t>0,64; 2,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,49</t>
+          <t>1,21; 3,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,54</t>
+          <t>0,6; 2,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 13,13</t>
+          <t>2,01; 13,84</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,96%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,23%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>2,9%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>2,31%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>2,59%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>9,01%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,09%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,96%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>3,23%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>6,84%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 6,57</t>
+          <t>0,6; 5,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 5,38</t>
+          <t>0,0; 3,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,58</t>
+          <t>1,43; 5,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 21,4</t>
+          <t>0,0; 17,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,51</t>
+          <t>1,08; 6,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,91</t>
+          <t>0,63; 5,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 6,03</t>
+          <t>0,89; 5,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,84</t>
+          <t>2,29; 20,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,05</t>
+          <t>1,2; 4,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,45</t>
+          <t>0,63; 3,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 4,64</t>
+          <t>1,65; 4,96</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 13,88</t>
+          <t>2,4; 14,14</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,4%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4,74%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>2,76%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>2,94%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>2,66%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,06%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,4%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,4%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,18%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>6,13%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 5,93</t>
+          <t>0,0; 2,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,72</t>
+          <t>0,41; 3,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,75</t>
+          <t>0,85; 5,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 16,66</t>
+          <t>0,0; 16,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,01</t>
+          <t>1,15; 5,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,16</t>
+          <t>1,24; 6,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,47</t>
+          <t>0,96; 6,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,55</t>
+          <t>2,65; 15,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,02</t>
+          <t>0,62; 2,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,91</t>
+          <t>1,07; 3,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 4,57</t>
+          <t>1,3; 4,56</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,79; 11,95</t>
+          <t>2,37; 11,83</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,21%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,06%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,7%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>1,59%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>2,24%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>1,8%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>5,69%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1,8%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1,21%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,06%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,64%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,56</t>
+          <t>1,06; 2,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,45</t>
+          <t>0,62; 2,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 2,89</t>
+          <t>1,24; 3,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 9,88</t>
+          <t>2,46; 11,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,86</t>
+          <t>0,98; 2,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,0</t>
+          <t>1,4; 3,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,11</t>
+          <t>1,1; 2,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,56; 10,42</t>
+          <t>2,81; 9,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,33</t>
+          <t>1,17; 2,41</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,45</t>
+          <t>1,21; 2,36</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 2,64</t>
+          <t>1,45; 2,59</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,44; 8,56</t>
+          <t>3,5; 8,49</t>
         </is>
       </c>
     </row>
